--- a/data/trans_bre/P24_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,79</t>
+          <t>22,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,95</t>
+          <t>23,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>369,96%</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>229,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>-14,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1004,67%</t>
+          <t>99,55%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>981,19%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>523,19%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 37,52</t>
+          <t>3,79; 39,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 17,11</t>
+          <t>-23,83; 13,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 24,73</t>
+          <t>-4,37; 32,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 41,2</t>
+          <t>10,86; 36,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,53; 1461,1</t>
+          <t>2,62; 31,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 240,84</t>
+          <t>6,86; 1384,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 336,61</t>
+          <t>-80,04; 179,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>126,08; —</t>
+          <t>-26,04; 446,76</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,78</t>
+          <t>33,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>14,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>26,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>445,26%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>133,98%</t>
+          <t>931,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>112,38%</t>
+          <t>149,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>122,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>391,87%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 24,26</t>
+          <t>-23,64; 30,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 34,98</t>
+          <t>19,35; 48,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 22,87</t>
+          <t>0,77; 29,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 22,68</t>
+          <t>-1,01; 30,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 333,99</t>
+          <t>11,9; 41,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,24; 2322,42</t>
+          <t>-54,55; 439,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 519,95</t>
+          <t>154,23; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 448,99</t>
+          <t>-14,76; 793,88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 607,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>73,4; 2086,51</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>16,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>184,88%</t>
+          <t>14,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>232,31%</t>
+          <t>192,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>266,66%</t>
+          <t>313,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>188,72%</t>
+          <t>223,26%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>163,77%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>162,61%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 26,79</t>
+          <t>3,6; 27,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 22,54</t>
+          <t>6,02; 25,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 25,16</t>
+          <t>5,76; 26,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 26,88</t>
+          <t>4,15; 25,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,16; 515,32</t>
+          <t>3,92; 26,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,72; 700,09</t>
+          <t>19,07; 754,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,64; 849,13</t>
+          <t>41,96; 1737,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,27; 509,89</t>
+          <t>27,67; 1168,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 663,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 702,22</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,4</t>
+          <t>13,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,57</t>
+          <t>25,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>113,05%</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>167,96%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>218,89%</t>
+          <t>129,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>226,72%</t>
+          <t>244,94%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>106,03%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>178,69%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 19,09</t>
+          <t>-2,31; 16,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 20,04</t>
+          <t>3,02; 24,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 30,71</t>
+          <t>14,14; 36,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 23,21</t>
+          <t>0,05; 20,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,63; 330,96</t>
+          <t>5,52; 27,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,17; 526,95</t>
+          <t>-21,26; 344,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,17; 506,55</t>
+          <t>10,2; 368,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,22; 591,22</t>
+          <t>74,25; 640,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 424,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29,21; 569,45</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,24</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>111,15%</t>
+          <t>14,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>204,14%</t>
+          <t>126,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>190,61%</t>
+          <t>156,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>214,98%</t>
+          <t>233,13%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>166,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>223,38%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 15,37</t>
+          <t>-2,43; 15,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 16,12</t>
+          <t>-1,54; 19,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 20,69</t>
+          <t>3,92; 30,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 21,71</t>
+          <t>0,68; 25,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 481,08</t>
+          <t>1,67; 28,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 888,1</t>
+          <t>-63,33; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,85; 603,66</t>
+          <t>-41,09; 949,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,53; 599,06</t>
+          <t>21,28; 1201,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,66; 820,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 1331,9</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8,81</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9,99</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>7,41</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>11,66</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>539,23%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>298,3%</t>
+          <t>185,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1019,9%</t>
+          <t>185,36%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>254,03%</t>
         </is>
       </c>
     </row>
@@ -1168,40 +1294,50 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 27,78</t>
+          <t>1,97; 18,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 19,2</t>
+          <t>-5,28; 16,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 14,07</t>
+          <t>-3,07; 21,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 24,45</t>
+          <t>3,67; 22,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-2,61; 17,57</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-25,65; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-71,13; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>16,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>158,84%</t>
+          <t>15,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>193,98%</t>
+          <t>125,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>172,3%</t>
+          <t>188,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>250,31%</t>
+          <t>182,78%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>193,1%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>236,63%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,32</t>
+          <t>4,07; 17,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,61</t>
+          <t>8,84; 18,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,77</t>
+          <t>11,08; 22,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,82; 20,27</t>
+          <t>9,33; 19,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,85; 271,5</t>
+          <t>10,47; 21,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,28; 324,53</t>
+          <t>15,27; 268,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,72; 277,32</t>
+          <t>83,95; 349,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>138,58; 406,78</t>
+          <t>92,69; 328,63</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>95,01; 375,97</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>112,73; 439,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
